--- a/Design/Instrument-2.0/Usage of Peak.xlsx
+++ b/Design/Instrument-2.0/Usage of Peak.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vsp49818\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vsp49818\Documents\Mantid\documents\Design\Instrument-2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="205">
   <si>
     <t>Severity</t>
   </si>
@@ -636,9 +636,6 @@
     <t>Only an instrument shared pointer passed in via the arguments is present.</t>
   </si>
   <si>
-    <t>Needs review</t>
-  </si>
-  <si>
     <t>ws is available right next to where inst is created, but inst is used to set the instrument.</t>
   </si>
   <si>
@@ -646,9 +643,6 @@
   </si>
   <si>
     <t>To Review</t>
-  </si>
-  <si>
-    <t>Needs Review</t>
   </si>
 </sst>
 </file>
@@ -859,36 +853,6 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -900,6 +864,36 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -913,21 +907,21 @@
   <dxfs count="38">
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1569,8 +1563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1590,37 +1584,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="15" t="s">
         <v>198</v>
       </c>
       <c r="M1" s="11"/>
@@ -1665,7 +1659,7 @@
       <c r="I2" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="24" t="s">
         <v>118</v>
       </c>
       <c r="K2" s="3" t="s">
@@ -1719,7 +1713,7 @@
       <c r="I3" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="J3" s="16"/>
+      <c r="J3" s="22"/>
       <c r="K3" s="3" t="s">
         <v>200</v>
       </c>
@@ -1771,7 +1765,7 @@
       <c r="I4" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="J4" s="17"/>
+      <c r="J4" s="23"/>
       <c r="K4" s="3" t="s">
         <v>200</v>
       </c>
@@ -1811,8 +1805,8 @@
         <v>199</v>
       </c>
       <c r="M5" s="2"/>
-      <c r="N5" s="23" t="s">
-        <v>205</v>
+      <c r="N5" s="13" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1849,9 +1843,9 @@
       <c r="K6" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="N6" s="23">
+      <c r="N6" s="13">
         <f>COUNTIF(K2:K146, "Needs Review")</f>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1991,7 +1985,7 @@
         <v>201</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2058,7 +2052,7 @@
         <v>114</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2125,7 +2119,7 @@
         <v>114</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2230,7 +2224,7 @@
         <v>125</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2255,16 +2249,16 @@
       <c r="G18" s="1">
         <v>1349</v>
       </c>
-      <c r="H18" s="12" t="s">
+      <c r="H18" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="I18" s="12" t="s">
+      <c r="I18" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="J18" s="15" t="s">
+      <c r="J18" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="K18" s="18" t="s">
+      <c r="K18" s="16" t="s">
         <v>200</v>
       </c>
     </row>
@@ -2290,10 +2284,10 @@
       <c r="G19" s="1">
         <v>1349</v>
       </c>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="19"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="17"/>
     </row>
     <row r="20" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -2317,10 +2311,10 @@
       <c r="G20" s="1">
         <v>1349</v>
       </c>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="19"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="17"/>
     </row>
     <row r="21" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -2344,10 +2338,10 @@
       <c r="G21" s="1">
         <v>1349</v>
       </c>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="20"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="18"/>
     </row>
     <row r="22" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -2371,16 +2365,16 @@
       <c r="G22" s="1">
         <v>143</v>
       </c>
-      <c r="H22" s="12" t="s">
+      <c r="H22" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="I22" s="12" t="s">
+      <c r="I22" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="J22" s="15" t="s">
+      <c r="J22" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="K22" s="18" t="s">
+      <c r="K22" s="16" t="s">
         <v>200</v>
       </c>
     </row>
@@ -2406,10 +2400,10 @@
       <c r="G23" s="1">
         <v>201</v>
       </c>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="19"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="17"/>
     </row>
     <row r="24" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
@@ -2433,10 +2427,10 @@
       <c r="G24" s="1">
         <v>202</v>
       </c>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="19"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="17"/>
     </row>
     <row r="25" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
@@ -2460,10 +2454,10 @@
       <c r="G25" s="1">
         <v>203</v>
       </c>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="19"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="17"/>
     </row>
     <row r="26" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -2487,10 +2481,10 @@
       <c r="G26" s="1">
         <v>288</v>
       </c>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="19"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="17"/>
     </row>
     <row r="27" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -2514,10 +2508,10 @@
       <c r="G27" s="1">
         <v>324</v>
       </c>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="19"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="17"/>
     </row>
     <row r="28" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
@@ -2541,10 +2535,10 @@
       <c r="G28" s="1">
         <v>468</v>
       </c>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="19"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="17"/>
     </row>
     <row r="29" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
@@ -2568,10 +2562,10 @@
       <c r="G29" s="1">
         <v>134</v>
       </c>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="19"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="17"/>
     </row>
     <row r="30" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
@@ -2595,10 +2589,10 @@
       <c r="G30" s="1">
         <v>170</v>
       </c>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="19"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="17"/>
     </row>
     <row r="31" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
@@ -2622,10 +2616,10 @@
       <c r="G31" s="1">
         <v>148</v>
       </c>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="19"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="17"/>
     </row>
     <row r="32" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -2649,10 +2643,10 @@
       <c r="G32" s="1">
         <v>196</v>
       </c>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="19"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="17"/>
     </row>
     <row r="33" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
@@ -2676,10 +2670,10 @@
       <c r="G33" s="1">
         <v>217</v>
       </c>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="19"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="17"/>
     </row>
     <row r="34" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -2703,10 +2697,10 @@
       <c r="G34" s="1">
         <v>218</v>
       </c>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="19"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="17"/>
     </row>
     <row r="35" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
@@ -2730,10 +2724,10 @@
       <c r="G35" s="1">
         <v>219</v>
       </c>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="19"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="17"/>
     </row>
     <row r="36" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
@@ -2757,10 +2751,10 @@
       <c r="G36" s="1">
         <v>305</v>
       </c>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="19"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="17"/>
     </row>
     <row r="37" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
@@ -2784,10 +2778,10 @@
       <c r="G37" s="1">
         <v>341</v>
       </c>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="19"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="17"/>
     </row>
     <row r="38" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
@@ -2811,10 +2805,10 @@
       <c r="G38" s="1">
         <v>498</v>
       </c>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="19"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="17"/>
     </row>
     <row r="39" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
@@ -2838,10 +2832,10 @@
       <c r="G39" s="1">
         <v>159</v>
       </c>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="20"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="18"/>
     </row>
     <row r="40" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
@@ -2865,16 +2859,16 @@
       <c r="G40" s="1">
         <v>1349</v>
       </c>
-      <c r="H40" s="12" t="s">
+      <c r="H40" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="I40" s="12" t="s">
+      <c r="I40" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="J40" s="15" t="s">
+      <c r="J40" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="K40" s="18" t="s">
+      <c r="K40" s="16" t="s">
         <v>200</v>
       </c>
     </row>
@@ -2900,10 +2894,10 @@
       <c r="G41" s="1">
         <v>1349</v>
       </c>
-      <c r="H41" s="14"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="20"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="18"/>
     </row>
     <row r="42" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
@@ -2997,16 +2991,16 @@
       <c r="G44" s="1">
         <v>1349</v>
       </c>
-      <c r="H44" s="12" t="s">
+      <c r="H44" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="I44" s="12" t="s">
+      <c r="I44" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="J44" s="15" t="s">
+      <c r="J44" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="K44" s="18" t="s">
+      <c r="K44" s="16" t="s">
         <v>200</v>
       </c>
     </row>
@@ -3032,10 +3026,10 @@
       <c r="G45" s="1">
         <v>1349</v>
       </c>
-      <c r="H45" s="14"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="20"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="23"/>
+      <c r="K45" s="18"/>
     </row>
     <row r="46" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
@@ -3129,16 +3123,16 @@
       <c r="G48" s="1">
         <v>150</v>
       </c>
-      <c r="H48" s="12" t="s">
+      <c r="H48" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="I48" s="12" t="s">
+      <c r="I48" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="J48" s="15" t="s">
+      <c r="J48" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="K48" s="18" t="s">
+      <c r="K48" s="16" t="s">
         <v>200</v>
       </c>
     </row>
@@ -3164,10 +3158,10 @@
       <c r="G49" s="1">
         <v>152</v>
       </c>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
-      <c r="J49" s="16"/>
-      <c r="K49" s="19"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="17"/>
     </row>
     <row r="50" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
@@ -3191,10 +3185,10 @@
       <c r="G50" s="1">
         <v>154</v>
       </c>
-      <c r="H50" s="13"/>
-      <c r="I50" s="13"/>
-      <c r="J50" s="16"/>
-      <c r="K50" s="19"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="17"/>
     </row>
     <row r="51" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
@@ -3218,10 +3212,10 @@
       <c r="G51" s="1">
         <v>168</v>
       </c>
-      <c r="H51" s="13"/>
-      <c r="I51" s="13"/>
-      <c r="J51" s="16"/>
-      <c r="K51" s="19"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="17"/>
     </row>
     <row r="52" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
@@ -3245,10 +3239,10 @@
       <c r="G52" s="1">
         <v>170</v>
       </c>
-      <c r="H52" s="13"/>
-      <c r="I52" s="13"/>
-      <c r="J52" s="16"/>
-      <c r="K52" s="19"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="17"/>
     </row>
     <row r="53" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
@@ -3272,10 +3266,10 @@
       <c r="G53" s="1">
         <v>172</v>
       </c>
-      <c r="H53" s="14"/>
-      <c r="I53" s="14"/>
-      <c r="J53" s="17"/>
-      <c r="K53" s="20"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="23"/>
+      <c r="K53" s="18"/>
     </row>
     <row r="54" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
@@ -3306,7 +3300,7 @@
         <v>110</v>
       </c>
       <c r="J54" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>200</v>
@@ -3341,7 +3335,7 @@
         <v>110</v>
       </c>
       <c r="J55" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K55" s="3" t="s">
         <v>200</v>
@@ -3376,7 +3370,7 @@
         <v>110</v>
       </c>
       <c r="J56" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K56" s="3" t="s">
         <v>200</v>
@@ -3414,7 +3408,7 @@
         <v>130</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3446,7 +3440,7 @@
         <v>110</v>
       </c>
       <c r="J58" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>200</v>
@@ -3509,16 +3503,16 @@
       <c r="G60" s="1">
         <v>24</v>
       </c>
-      <c r="H60" s="12" t="s">
+      <c r="H60" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="I60" s="12" t="s">
+      <c r="I60" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="J60" s="15" t="s">
+      <c r="J60" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="K60" s="18" t="s">
+      <c r="K60" s="16" t="s">
         <v>200</v>
       </c>
     </row>
@@ -3544,10 +3538,10 @@
       <c r="G61" s="1">
         <v>98</v>
       </c>
-      <c r="H61" s="14"/>
-      <c r="I61" s="14"/>
-      <c r="J61" s="17"/>
-      <c r="K61" s="20"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="21"/>
+      <c r="J61" s="23"/>
+      <c r="K61" s="18"/>
     </row>
     <row r="62" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
@@ -3571,13 +3565,13 @@
       <c r="G62" s="1">
         <v>68</v>
       </c>
-      <c r="H62" s="12" t="s">
+      <c r="H62" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="I62" s="12" t="s">
+      <c r="I62" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="J62" s="15" t="s">
+      <c r="J62" s="24" t="s">
         <v>133</v>
       </c>
       <c r="K62" s="3" t="s">
@@ -3606,9 +3600,9 @@
       <c r="G63" s="1">
         <v>69</v>
       </c>
-      <c r="H63" s="14"/>
-      <c r="I63" s="14"/>
-      <c r="J63" s="17"/>
+      <c r="H63" s="21"/>
+      <c r="I63" s="21"/>
+      <c r="J63" s="23"/>
       <c r="K63" s="3" t="s">
         <v>200</v>
       </c>
@@ -3670,16 +3664,16 @@
       <c r="G65" s="1">
         <v>133</v>
       </c>
-      <c r="H65" s="12" t="s">
+      <c r="H65" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="I65" s="12" t="s">
+      <c r="I65" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="J65" s="15" t="s">
+      <c r="J65" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="K65" s="18" t="s">
+      <c r="K65" s="16" t="s">
         <v>200</v>
       </c>
     </row>
@@ -3705,10 +3699,10 @@
       <c r="G66" s="1">
         <v>158</v>
       </c>
-      <c r="H66" s="13"/>
-      <c r="I66" s="13"/>
-      <c r="J66" s="16"/>
-      <c r="K66" s="19"/>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="22"/>
+      <c r="K66" s="17"/>
     </row>
     <row r="67" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
@@ -3732,10 +3726,10 @@
       <c r="G67" s="1">
         <v>181</v>
       </c>
-      <c r="H67" s="13"/>
-      <c r="I67" s="13"/>
-      <c r="J67" s="16"/>
-      <c r="K67" s="19"/>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="22"/>
+      <c r="K67" s="17"/>
     </row>
     <row r="68" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
@@ -3759,10 +3753,10 @@
       <c r="G68" s="1">
         <v>203</v>
       </c>
-      <c r="H68" s="14"/>
-      <c r="I68" s="14"/>
-      <c r="J68" s="17"/>
-      <c r="K68" s="20"/>
+      <c r="H68" s="21"/>
+      <c r="I68" s="21"/>
+      <c r="J68" s="23"/>
+      <c r="K68" s="18"/>
     </row>
     <row r="69" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
@@ -3821,16 +3815,16 @@
       <c r="G70" s="1">
         <v>51</v>
       </c>
-      <c r="H70" s="12" t="s">
+      <c r="H70" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="I70" s="12" t="s">
+      <c r="I70" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="J70" s="15" t="s">
+      <c r="J70" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="K70" s="18" t="s">
+      <c r="K70" s="16" t="s">
         <v>200</v>
       </c>
     </row>
@@ -3856,10 +3850,10 @@
       <c r="G71" s="1">
         <v>109</v>
       </c>
-      <c r="H71" s="13"/>
-      <c r="I71" s="13"/>
-      <c r="J71" s="16"/>
-      <c r="K71" s="19"/>
+      <c r="H71" s="20"/>
+      <c r="I71" s="20"/>
+      <c r="J71" s="22"/>
+      <c r="K71" s="17"/>
     </row>
     <row r="72" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
@@ -3883,10 +3877,10 @@
       <c r="G72" s="1">
         <v>155</v>
       </c>
-      <c r="H72" s="14"/>
-      <c r="I72" s="14"/>
-      <c r="J72" s="17"/>
-      <c r="K72" s="20"/>
+      <c r="H72" s="21"/>
+      <c r="I72" s="21"/>
+      <c r="J72" s="23"/>
+      <c r="K72" s="18"/>
     </row>
     <row r="73" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
@@ -4050,16 +4044,16 @@
       <c r="G77" s="1">
         <v>395</v>
       </c>
-      <c r="H77" s="12" t="s">
+      <c r="H77" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="I77" s="12" t="s">
+      <c r="I77" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="J77" s="15" t="s">
+      <c r="J77" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="K77" s="18" t="s">
+      <c r="K77" s="16" t="s">
         <v>200</v>
       </c>
     </row>
@@ -4085,10 +4079,10 @@
       <c r="G78" s="1">
         <v>428</v>
       </c>
-      <c r="H78" s="13"/>
-      <c r="I78" s="13"/>
-      <c r="J78" s="16"/>
-      <c r="K78" s="19"/>
+      <c r="H78" s="20"/>
+      <c r="I78" s="20"/>
+      <c r="J78" s="22"/>
+      <c r="K78" s="17"/>
     </row>
     <row r="79" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
@@ -4112,10 +4106,10 @@
       <c r="G79" s="1">
         <v>432</v>
       </c>
-      <c r="H79" s="13"/>
-      <c r="I79" s="13"/>
-      <c r="J79" s="16"/>
-      <c r="K79" s="19"/>
+      <c r="H79" s="20"/>
+      <c r="I79" s="20"/>
+      <c r="J79" s="22"/>
+      <c r="K79" s="17"/>
     </row>
     <row r="80" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
@@ -4139,10 +4133,10 @@
       <c r="G80" s="1">
         <v>436</v>
       </c>
-      <c r="H80" s="13"/>
-      <c r="I80" s="13"/>
-      <c r="J80" s="16"/>
-      <c r="K80" s="19"/>
+      <c r="H80" s="20"/>
+      <c r="I80" s="20"/>
+      <c r="J80" s="22"/>
+      <c r="K80" s="17"/>
     </row>
     <row r="81" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
@@ -4166,10 +4160,10 @@
       <c r="G81" s="1">
         <v>548</v>
       </c>
-      <c r="H81" s="14"/>
-      <c r="I81" s="14"/>
-      <c r="J81" s="17"/>
-      <c r="K81" s="20"/>
+      <c r="H81" s="21"/>
+      <c r="I81" s="21"/>
+      <c r="J81" s="23"/>
+      <c r="K81" s="18"/>
     </row>
     <row r="82" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
@@ -4193,16 +4187,16 @@
       <c r="G82" s="1">
         <v>118</v>
       </c>
-      <c r="H82" s="12" t="s">
+      <c r="H82" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="I82" s="12" t="s">
+      <c r="I82" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="J82" s="15" t="s">
+      <c r="J82" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="K82" s="18" t="s">
+      <c r="K82" s="16" t="s">
         <v>200</v>
       </c>
     </row>
@@ -4228,10 +4222,10 @@
       <c r="G83" s="1">
         <v>121</v>
       </c>
-      <c r="H83" s="14"/>
-      <c r="I83" s="14"/>
-      <c r="J83" s="17"/>
-      <c r="K83" s="20"/>
+      <c r="H83" s="21"/>
+      <c r="I83" s="21"/>
+      <c r="J83" s="23"/>
+      <c r="K83" s="18"/>
     </row>
     <row r="84" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
@@ -4255,16 +4249,16 @@
       <c r="G84" s="1">
         <v>82</v>
       </c>
-      <c r="H84" s="12" t="s">
+      <c r="H84" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="I84" s="12" t="s">
+      <c r="I84" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="J84" s="15" t="s">
+      <c r="J84" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="K84" s="18" t="s">
+      <c r="K84" s="16" t="s">
         <v>200</v>
       </c>
     </row>
@@ -4290,10 +4284,10 @@
       <c r="G85" s="1">
         <v>84</v>
       </c>
-      <c r="H85" s="13"/>
-      <c r="I85" s="13"/>
-      <c r="J85" s="16"/>
-      <c r="K85" s="19"/>
+      <c r="H85" s="20"/>
+      <c r="I85" s="20"/>
+      <c r="J85" s="22"/>
+      <c r="K85" s="17"/>
     </row>
     <row r="86" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
@@ -4317,10 +4311,10 @@
       <c r="G86" s="1">
         <v>85</v>
       </c>
-      <c r="H86" s="13"/>
-      <c r="I86" s="13"/>
-      <c r="J86" s="16"/>
-      <c r="K86" s="19"/>
+      <c r="H86" s="20"/>
+      <c r="I86" s="20"/>
+      <c r="J86" s="22"/>
+      <c r="K86" s="17"/>
     </row>
     <row r="87" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
@@ -4344,10 +4338,10 @@
       <c r="G87" s="1">
         <v>200</v>
       </c>
-      <c r="H87" s="14"/>
-      <c r="I87" s="14"/>
-      <c r="J87" s="17"/>
-      <c r="K87" s="20"/>
+      <c r="H87" s="21"/>
+      <c r="I87" s="21"/>
+      <c r="J87" s="23"/>
+      <c r="K87" s="18"/>
     </row>
     <row r="88" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
@@ -4371,16 +4365,16 @@
       <c r="G88" s="1">
         <v>1349</v>
       </c>
-      <c r="H88" s="12" t="s">
+      <c r="H88" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="I88" s="12" t="s">
+      <c r="I88" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="J88" s="15" t="s">
+      <c r="J88" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="K88" s="18" t="s">
+      <c r="K88" s="16" t="s">
         <v>200</v>
       </c>
     </row>
@@ -4406,10 +4400,10 @@
       <c r="G89" s="1">
         <v>1349</v>
       </c>
-      <c r="H89" s="14"/>
-      <c r="I89" s="14"/>
-      <c r="J89" s="17"/>
-      <c r="K89" s="20"/>
+      <c r="H89" s="21"/>
+      <c r="I89" s="21"/>
+      <c r="J89" s="23"/>
+      <c r="K89" s="18"/>
     </row>
     <row r="90" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
@@ -4468,16 +4462,16 @@
       <c r="G91" s="1">
         <v>97</v>
       </c>
-      <c r="H91" s="12" t="s">
+      <c r="H91" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="I91" s="12" t="s">
+      <c r="I91" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="J91" s="16" t="s">
+      <c r="J91" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="K91" s="18" t="s">
+      <c r="K91" s="16" t="s">
         <v>200</v>
       </c>
     </row>
@@ -4503,10 +4497,10 @@
       <c r="G92" s="1">
         <v>98</v>
       </c>
-      <c r="H92" s="13"/>
-      <c r="I92" s="13"/>
-      <c r="J92" s="16"/>
-      <c r="K92" s="19"/>
+      <c r="H92" s="20"/>
+      <c r="I92" s="20"/>
+      <c r="J92" s="22"/>
+      <c r="K92" s="17"/>
     </row>
     <row r="93" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
@@ -4530,10 +4524,10 @@
       <c r="G93" s="1">
         <v>99</v>
       </c>
-      <c r="H93" s="13"/>
-      <c r="I93" s="13"/>
-      <c r="J93" s="16"/>
-      <c r="K93" s="19"/>
+      <c r="H93" s="20"/>
+      <c r="I93" s="20"/>
+      <c r="J93" s="22"/>
+      <c r="K93" s="17"/>
     </row>
     <row r="94" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
@@ -4557,10 +4551,10 @@
       <c r="G94" s="1">
         <v>100</v>
       </c>
-      <c r="H94" s="13"/>
-      <c r="I94" s="13"/>
-      <c r="J94" s="16"/>
-      <c r="K94" s="19"/>
+      <c r="H94" s="20"/>
+      <c r="I94" s="20"/>
+      <c r="J94" s="22"/>
+      <c r="K94" s="17"/>
     </row>
     <row r="95" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
@@ -4584,10 +4578,10 @@
       <c r="G95" s="1">
         <v>539</v>
       </c>
-      <c r="H95" s="13"/>
-      <c r="I95" s="13"/>
-      <c r="J95" s="16"/>
-      <c r="K95" s="19"/>
+      <c r="H95" s="20"/>
+      <c r="I95" s="20"/>
+      <c r="J95" s="22"/>
+      <c r="K95" s="17"/>
     </row>
     <row r="96" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
@@ -4611,10 +4605,10 @@
       <c r="G96" s="1">
         <v>540</v>
       </c>
-      <c r="H96" s="13"/>
-      <c r="I96" s="13"/>
-      <c r="J96" s="16"/>
-      <c r="K96" s="19"/>
+      <c r="H96" s="20"/>
+      <c r="I96" s="20"/>
+      <c r="J96" s="22"/>
+      <c r="K96" s="17"/>
     </row>
     <row r="97" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
@@ -4638,10 +4632,10 @@
       <c r="G97" s="1">
         <v>541</v>
       </c>
-      <c r="H97" s="13"/>
-      <c r="I97" s="13"/>
-      <c r="J97" s="16"/>
-      <c r="K97" s="19"/>
+      <c r="H97" s="20"/>
+      <c r="I97" s="20"/>
+      <c r="J97" s="22"/>
+      <c r="K97" s="17"/>
     </row>
     <row r="98" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
@@ -4665,10 +4659,10 @@
       <c r="G98" s="1">
         <v>623</v>
       </c>
-      <c r="H98" s="13"/>
-      <c r="I98" s="13"/>
-      <c r="J98" s="16"/>
-      <c r="K98" s="19"/>
+      <c r="H98" s="20"/>
+      <c r="I98" s="20"/>
+      <c r="J98" s="22"/>
+      <c r="K98" s="17"/>
     </row>
     <row r="99" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
@@ -4692,10 +4686,10 @@
       <c r="G99" s="1">
         <v>624</v>
       </c>
-      <c r="H99" s="13"/>
-      <c r="I99" s="13"/>
-      <c r="J99" s="16"/>
-      <c r="K99" s="19"/>
+      <c r="H99" s="20"/>
+      <c r="I99" s="20"/>
+      <c r="J99" s="22"/>
+      <c r="K99" s="17"/>
     </row>
     <row r="100" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
@@ -4719,10 +4713,10 @@
       <c r="G100" s="1">
         <v>625</v>
       </c>
-      <c r="H100" s="13"/>
-      <c r="I100" s="13"/>
-      <c r="J100" s="16"/>
-      <c r="K100" s="19"/>
+      <c r="H100" s="20"/>
+      <c r="I100" s="20"/>
+      <c r="J100" s="22"/>
+      <c r="K100" s="17"/>
     </row>
     <row r="101" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
@@ -4746,10 +4740,10 @@
       <c r="G101" s="1">
         <v>626</v>
       </c>
-      <c r="H101" s="14"/>
-      <c r="I101" s="14"/>
-      <c r="J101" s="17"/>
-      <c r="K101" s="20"/>
+      <c r="H101" s="21"/>
+      <c r="I101" s="21"/>
+      <c r="J101" s="23"/>
+      <c r="K101" s="18"/>
     </row>
     <row r="102" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
@@ -4773,16 +4767,16 @@
       <c r="G102" s="1">
         <v>54</v>
       </c>
-      <c r="H102" s="12" t="s">
+      <c r="H102" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="I102" s="12" t="s">
+      <c r="I102" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="J102" s="15" t="s">
+      <c r="J102" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="K102" s="18" t="s">
+      <c r="K102" s="16" t="s">
         <v>200</v>
       </c>
     </row>
@@ -4808,10 +4802,10 @@
       <c r="G103" s="1">
         <v>66</v>
       </c>
-      <c r="H103" s="13"/>
-      <c r="I103" s="13"/>
-      <c r="J103" s="16"/>
-      <c r="K103" s="19"/>
+      <c r="H103" s="20"/>
+      <c r="I103" s="20"/>
+      <c r="J103" s="22"/>
+      <c r="K103" s="17"/>
     </row>
     <row r="104" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
@@ -4835,10 +4829,10 @@
       <c r="G104" s="1">
         <v>86</v>
       </c>
-      <c r="H104" s="13"/>
-      <c r="I104" s="13"/>
-      <c r="J104" s="16"/>
-      <c r="K104" s="19"/>
+      <c r="H104" s="20"/>
+      <c r="I104" s="20"/>
+      <c r="J104" s="22"/>
+      <c r="K104" s="17"/>
     </row>
     <row r="105" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
@@ -4862,10 +4856,10 @@
       <c r="G105" s="1">
         <v>87</v>
       </c>
-      <c r="H105" s="13"/>
-      <c r="I105" s="13"/>
-      <c r="J105" s="16"/>
-      <c r="K105" s="19"/>
+      <c r="H105" s="20"/>
+      <c r="I105" s="20"/>
+      <c r="J105" s="22"/>
+      <c r="K105" s="17"/>
     </row>
     <row r="106" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
@@ -4889,10 +4883,10 @@
       <c r="G106" s="1">
         <v>88</v>
       </c>
-      <c r="H106" s="13"/>
-      <c r="I106" s="13"/>
-      <c r="J106" s="16"/>
-      <c r="K106" s="19"/>
+      <c r="H106" s="20"/>
+      <c r="I106" s="20"/>
+      <c r="J106" s="22"/>
+      <c r="K106" s="17"/>
     </row>
     <row r="107" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
@@ -4916,10 +4910,10 @@
       <c r="G107" s="1">
         <v>100</v>
       </c>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="16"/>
-      <c r="K107" s="19"/>
+      <c r="H107" s="20"/>
+      <c r="I107" s="20"/>
+      <c r="J107" s="22"/>
+      <c r="K107" s="17"/>
     </row>
     <row r="108" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
@@ -4943,10 +4937,10 @@
       <c r="G108" s="1">
         <v>122</v>
       </c>
-      <c r="H108" s="13"/>
-      <c r="I108" s="13"/>
-      <c r="J108" s="16"/>
-      <c r="K108" s="19"/>
+      <c r="H108" s="20"/>
+      <c r="I108" s="20"/>
+      <c r="J108" s="22"/>
+      <c r="K108" s="17"/>
     </row>
     <row r="109" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
@@ -4970,10 +4964,10 @@
       <c r="G109" s="1">
         <v>142</v>
       </c>
-      <c r="H109" s="13"/>
-      <c r="I109" s="13"/>
-      <c r="J109" s="16"/>
-      <c r="K109" s="19"/>
+      <c r="H109" s="20"/>
+      <c r="I109" s="20"/>
+      <c r="J109" s="22"/>
+      <c r="K109" s="17"/>
     </row>
     <row r="110" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
@@ -4997,10 +4991,10 @@
       <c r="G110" s="1">
         <v>158</v>
       </c>
-      <c r="H110" s="13"/>
-      <c r="I110" s="13"/>
-      <c r="J110" s="16"/>
-      <c r="K110" s="19"/>
+      <c r="H110" s="20"/>
+      <c r="I110" s="20"/>
+      <c r="J110" s="22"/>
+      <c r="K110" s="17"/>
     </row>
     <row r="111" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
@@ -5024,10 +5018,10 @@
       <c r="G111" s="1">
         <v>174</v>
       </c>
-      <c r="H111" s="13"/>
-      <c r="I111" s="13"/>
-      <c r="J111" s="16"/>
-      <c r="K111" s="19"/>
+      <c r="H111" s="20"/>
+      <c r="I111" s="20"/>
+      <c r="J111" s="22"/>
+      <c r="K111" s="17"/>
     </row>
     <row r="112" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
@@ -5051,10 +5045,10 @@
       <c r="G112" s="1">
         <v>181</v>
       </c>
-      <c r="H112" s="13"/>
-      <c r="I112" s="13"/>
-      <c r="J112" s="16"/>
-      <c r="K112" s="19"/>
+      <c r="H112" s="20"/>
+      <c r="I112" s="20"/>
+      <c r="J112" s="22"/>
+      <c r="K112" s="17"/>
     </row>
     <row r="113" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
@@ -5078,10 +5072,10 @@
       <c r="G113" s="1">
         <v>189</v>
       </c>
-      <c r="H113" s="13"/>
-      <c r="I113" s="13"/>
-      <c r="J113" s="16"/>
-      <c r="K113" s="19"/>
+      <c r="H113" s="20"/>
+      <c r="I113" s="20"/>
+      <c r="J113" s="22"/>
+      <c r="K113" s="17"/>
     </row>
     <row r="114" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
@@ -5105,10 +5099,10 @@
       <c r="G114" s="1">
         <v>195</v>
       </c>
-      <c r="H114" s="13"/>
-      <c r="I114" s="13"/>
-      <c r="J114" s="16"/>
-      <c r="K114" s="19"/>
+      <c r="H114" s="20"/>
+      <c r="I114" s="20"/>
+      <c r="J114" s="22"/>
+      <c r="K114" s="17"/>
     </row>
     <row r="115" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
@@ -5132,10 +5126,10 @@
       <c r="G115" s="1">
         <v>215</v>
       </c>
-      <c r="H115" s="13"/>
-      <c r="I115" s="13"/>
-      <c r="J115" s="16"/>
-      <c r="K115" s="19"/>
+      <c r="H115" s="20"/>
+      <c r="I115" s="20"/>
+      <c r="J115" s="22"/>
+      <c r="K115" s="17"/>
     </row>
     <row r="116" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
@@ -5159,10 +5153,10 @@
       <c r="G116" s="1">
         <v>234</v>
       </c>
-      <c r="H116" s="13"/>
-      <c r="I116" s="13"/>
-      <c r="J116" s="16"/>
-      <c r="K116" s="19"/>
+      <c r="H116" s="20"/>
+      <c r="I116" s="20"/>
+      <c r="J116" s="22"/>
+      <c r="K116" s="17"/>
     </row>
     <row r="117" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
@@ -5186,10 +5180,10 @@
       <c r="G117" s="1">
         <v>253</v>
       </c>
-      <c r="H117" s="13"/>
-      <c r="I117" s="13"/>
-      <c r="J117" s="16"/>
-      <c r="K117" s="19"/>
+      <c r="H117" s="20"/>
+      <c r="I117" s="20"/>
+      <c r="J117" s="22"/>
+      <c r="K117" s="17"/>
     </row>
     <row r="118" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
@@ -5213,10 +5207,10 @@
       <c r="G118" s="1">
         <v>271</v>
       </c>
-      <c r="H118" s="13"/>
-      <c r="I118" s="13"/>
-      <c r="J118" s="16"/>
-      <c r="K118" s="19"/>
+      <c r="H118" s="20"/>
+      <c r="I118" s="20"/>
+      <c r="J118" s="22"/>
+      <c r="K118" s="17"/>
     </row>
     <row r="119" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
@@ -5240,10 +5234,10 @@
       <c r="G119" s="1">
         <v>283</v>
       </c>
-      <c r="H119" s="13"/>
-      <c r="I119" s="13"/>
-      <c r="J119" s="16"/>
-      <c r="K119" s="19"/>
+      <c r="H119" s="20"/>
+      <c r="I119" s="20"/>
+      <c r="J119" s="22"/>
+      <c r="K119" s="17"/>
     </row>
     <row r="120" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
@@ -5267,10 +5261,10 @@
       <c r="G120" s="1">
         <v>285</v>
       </c>
-      <c r="H120" s="13"/>
-      <c r="I120" s="13"/>
-      <c r="J120" s="16"/>
-      <c r="K120" s="19"/>
+      <c r="H120" s="20"/>
+      <c r="I120" s="20"/>
+      <c r="J120" s="22"/>
+      <c r="K120" s="17"/>
     </row>
     <row r="121" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
@@ -5294,10 +5288,10 @@
       <c r="G121" s="1">
         <v>286</v>
       </c>
-      <c r="H121" s="13"/>
-      <c r="I121" s="13"/>
-      <c r="J121" s="16"/>
-      <c r="K121" s="19"/>
+      <c r="H121" s="20"/>
+      <c r="I121" s="20"/>
+      <c r="J121" s="22"/>
+      <c r="K121" s="17"/>
     </row>
     <row r="122" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
@@ -5321,10 +5315,10 @@
       <c r="G122" s="1">
         <v>308</v>
       </c>
-      <c r="H122" s="13"/>
-      <c r="I122" s="13"/>
-      <c r="J122" s="16"/>
-      <c r="K122" s="19"/>
+      <c r="H122" s="20"/>
+      <c r="I122" s="20"/>
+      <c r="J122" s="22"/>
+      <c r="K122" s="17"/>
     </row>
     <row r="123" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
@@ -5348,10 +5342,10 @@
       <c r="G123" s="1">
         <v>313</v>
       </c>
-      <c r="H123" s="13"/>
-      <c r="I123" s="13"/>
-      <c r="J123" s="16"/>
-      <c r="K123" s="19"/>
+      <c r="H123" s="20"/>
+      <c r="I123" s="20"/>
+      <c r="J123" s="22"/>
+      <c r="K123" s="17"/>
     </row>
     <row r="124" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
@@ -5375,10 +5369,10 @@
       <c r="G124" s="1">
         <v>346</v>
       </c>
-      <c r="H124" s="13"/>
-      <c r="I124" s="13"/>
-      <c r="J124" s="16"/>
-      <c r="K124" s="19"/>
+      <c r="H124" s="20"/>
+      <c r="I124" s="20"/>
+      <c r="J124" s="22"/>
+      <c r="K124" s="17"/>
     </row>
     <row r="125" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
@@ -5402,10 +5396,10 @@
       <c r="G125" s="1">
         <v>365</v>
       </c>
-      <c r="H125" s="13"/>
-      <c r="I125" s="13"/>
-      <c r="J125" s="16"/>
-      <c r="K125" s="19"/>
+      <c r="H125" s="20"/>
+      <c r="I125" s="20"/>
+      <c r="J125" s="22"/>
+      <c r="K125" s="17"/>
     </row>
     <row r="126" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
@@ -5429,10 +5423,10 @@
       <c r="G126" s="1">
         <v>370</v>
       </c>
-      <c r="H126" s="13"/>
-      <c r="I126" s="13"/>
-      <c r="J126" s="16"/>
-      <c r="K126" s="19"/>
+      <c r="H126" s="20"/>
+      <c r="I126" s="20"/>
+      <c r="J126" s="22"/>
+      <c r="K126" s="17"/>
     </row>
     <row r="127" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
@@ -5456,10 +5450,10 @@
       <c r="G127" s="1">
         <v>408</v>
       </c>
-      <c r="H127" s="13"/>
-      <c r="I127" s="13"/>
-      <c r="J127" s="16"/>
-      <c r="K127" s="19"/>
+      <c r="H127" s="20"/>
+      <c r="I127" s="20"/>
+      <c r="J127" s="22"/>
+      <c r="K127" s="17"/>
     </row>
     <row r="128" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
@@ -5483,10 +5477,10 @@
       <c r="G128" s="1">
         <v>420</v>
       </c>
-      <c r="H128" s="13"/>
-      <c r="I128" s="13"/>
-      <c r="J128" s="16"/>
-      <c r="K128" s="19"/>
+      <c r="H128" s="20"/>
+      <c r="I128" s="20"/>
+      <c r="J128" s="22"/>
+      <c r="K128" s="17"/>
     </row>
     <row r="129" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
@@ -5510,10 +5504,10 @@
       <c r="G129" s="1">
         <v>475</v>
       </c>
-      <c r="H129" s="13"/>
-      <c r="I129" s="13"/>
-      <c r="J129" s="16"/>
-      <c r="K129" s="19"/>
+      <c r="H129" s="20"/>
+      <c r="I129" s="20"/>
+      <c r="J129" s="22"/>
+      <c r="K129" s="17"/>
     </row>
     <row r="130" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
@@ -5537,10 +5531,10 @@
       <c r="G130" s="1">
         <v>481</v>
       </c>
-      <c r="H130" s="13"/>
-      <c r="I130" s="13"/>
-      <c r="J130" s="16"/>
-      <c r="K130" s="19"/>
+      <c r="H130" s="20"/>
+      <c r="I130" s="20"/>
+      <c r="J130" s="22"/>
+      <c r="K130" s="17"/>
     </row>
     <row r="131" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
@@ -5564,10 +5558,10 @@
       <c r="G131" s="1">
         <v>500</v>
       </c>
-      <c r="H131" s="13"/>
-      <c r="I131" s="13"/>
-      <c r="J131" s="16"/>
-      <c r="K131" s="19"/>
+      <c r="H131" s="20"/>
+      <c r="I131" s="20"/>
+      <c r="J131" s="22"/>
+      <c r="K131" s="17"/>
     </row>
     <row r="132" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
@@ -5591,10 +5585,10 @@
       <c r="G132" s="1">
         <v>505</v>
       </c>
-      <c r="H132" s="13"/>
-      <c r="I132" s="13"/>
-      <c r="J132" s="16"/>
-      <c r="K132" s="19"/>
+      <c r="H132" s="20"/>
+      <c r="I132" s="20"/>
+      <c r="J132" s="22"/>
+      <c r="K132" s="17"/>
     </row>
     <row r="133" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
@@ -5618,10 +5612,10 @@
       <c r="G133" s="1">
         <v>517</v>
       </c>
-      <c r="H133" s="13"/>
-      <c r="I133" s="13"/>
-      <c r="J133" s="16"/>
-      <c r="K133" s="19"/>
+      <c r="H133" s="20"/>
+      <c r="I133" s="20"/>
+      <c r="J133" s="22"/>
+      <c r="K133" s="17"/>
     </row>
     <row r="134" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
@@ -5645,10 +5639,10 @@
       <c r="G134" s="1">
         <v>528</v>
       </c>
-      <c r="H134" s="13"/>
-      <c r="I134" s="13"/>
-      <c r="J134" s="16"/>
-      <c r="K134" s="19"/>
+      <c r="H134" s="20"/>
+      <c r="I134" s="20"/>
+      <c r="J134" s="22"/>
+      <c r="K134" s="17"/>
     </row>
     <row r="135" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
@@ -5672,10 +5666,10 @@
       <c r="G135" s="1">
         <v>539</v>
       </c>
-      <c r="H135" s="13"/>
-      <c r="I135" s="13"/>
-      <c r="J135" s="16"/>
-      <c r="K135" s="19"/>
+      <c r="H135" s="20"/>
+      <c r="I135" s="20"/>
+      <c r="J135" s="22"/>
+      <c r="K135" s="17"/>
     </row>
     <row r="136" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
@@ -5699,10 +5693,10 @@
       <c r="G136" s="1">
         <v>547</v>
       </c>
-      <c r="H136" s="13"/>
-      <c r="I136" s="13"/>
-      <c r="J136" s="16"/>
-      <c r="K136" s="19"/>
+      <c r="H136" s="20"/>
+      <c r="I136" s="20"/>
+      <c r="J136" s="22"/>
+      <c r="K136" s="17"/>
     </row>
     <row r="137" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
@@ -5726,10 +5720,10 @@
       <c r="G137" s="1">
         <v>564</v>
       </c>
-      <c r="H137" s="13"/>
-      <c r="I137" s="13"/>
-      <c r="J137" s="16"/>
-      <c r="K137" s="19"/>
+      <c r="H137" s="20"/>
+      <c r="I137" s="20"/>
+      <c r="J137" s="22"/>
+      <c r="K137" s="17"/>
     </row>
     <row r="138" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
@@ -5753,10 +5747,10 @@
       <c r="G138" s="1">
         <v>577</v>
       </c>
-      <c r="H138" s="13"/>
-      <c r="I138" s="13"/>
-      <c r="J138" s="16"/>
-      <c r="K138" s="19"/>
+      <c r="H138" s="20"/>
+      <c r="I138" s="20"/>
+      <c r="J138" s="22"/>
+      <c r="K138" s="17"/>
     </row>
     <row r="139" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
@@ -5780,10 +5774,10 @@
       <c r="G139" s="1">
         <v>592</v>
       </c>
-      <c r="H139" s="14"/>
-      <c r="I139" s="14"/>
-      <c r="J139" s="17"/>
-      <c r="K139" s="20"/>
+      <c r="H139" s="21"/>
+      <c r="I139" s="21"/>
+      <c r="J139" s="23"/>
+      <c r="K139" s="18"/>
     </row>
     <row r="140" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
@@ -5807,16 +5801,16 @@
       <c r="G140" s="1">
         <v>36</v>
       </c>
-      <c r="H140" s="12" t="s">
+      <c r="H140" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="I140" s="12" t="s">
+      <c r="I140" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="J140" s="15" t="s">
+      <c r="J140" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="K140" s="18" t="s">
+      <c r="K140" s="16" t="s">
         <v>200</v>
       </c>
     </row>
@@ -5842,10 +5836,10 @@
       <c r="G141" s="1">
         <v>37</v>
       </c>
-      <c r="H141" s="14"/>
-      <c r="I141" s="14"/>
-      <c r="J141" s="17"/>
-      <c r="K141" s="20"/>
+      <c r="H141" s="21"/>
+      <c r="I141" s="21"/>
+      <c r="J141" s="23"/>
+      <c r="K141" s="18"/>
     </row>
     <row r="142" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
@@ -5869,16 +5863,16 @@
       <c r="G142" s="1">
         <v>1349</v>
       </c>
-      <c r="H142" s="12" t="s">
+      <c r="H142" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="I142" s="12" t="s">
+      <c r="I142" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="J142" s="21" t="s">
+      <c r="J142" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="K142" s="18" t="s">
+      <c r="K142" s="16" t="s">
         <v>200</v>
       </c>
     </row>
@@ -5904,10 +5898,10 @@
       <c r="G143" s="1">
         <v>1349</v>
       </c>
-      <c r="H143" s="13"/>
-      <c r="I143" s="13"/>
-      <c r="J143" s="21"/>
-      <c r="K143" s="19"/>
+      <c r="H143" s="20"/>
+      <c r="I143" s="20"/>
+      <c r="J143" s="25"/>
+      <c r="K143" s="17"/>
     </row>
     <row r="144" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
@@ -5931,10 +5925,10 @@
       <c r="G144" s="1">
         <v>1349</v>
       </c>
-      <c r="H144" s="14"/>
-      <c r="I144" s="14"/>
-      <c r="J144" s="21"/>
-      <c r="K144" s="20"/>
+      <c r="H144" s="21"/>
+      <c r="I144" s="21"/>
+      <c r="J144" s="25"/>
+      <c r="K144" s="18"/>
     </row>
     <row r="145" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
@@ -5999,7 +5993,7 @@
       <c r="I146" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="J146" s="22" t="s">
+      <c r="J146" s="12" t="s">
         <v>143</v>
       </c>
       <c r="K146" s="3" t="s">
@@ -6007,56 +6001,22 @@
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J147" s="22"/>
+      <c r="J147" s="12"/>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J148" s="22"/>
+      <c r="J148" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="K142:K144"/>
-    <mergeCell ref="K84:K87"/>
-    <mergeCell ref="K88:K89"/>
-    <mergeCell ref="K91:K101"/>
-    <mergeCell ref="K102:K139"/>
-    <mergeCell ref="K140:K141"/>
-    <mergeCell ref="K60:K61"/>
-    <mergeCell ref="K65:K68"/>
-    <mergeCell ref="K70:K72"/>
-    <mergeCell ref="K77:K81"/>
-    <mergeCell ref="K82:K83"/>
-    <mergeCell ref="K18:K21"/>
-    <mergeCell ref="K22:K39"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="K48:K53"/>
-    <mergeCell ref="H91:H101"/>
-    <mergeCell ref="I91:I101"/>
-    <mergeCell ref="J91:J101"/>
-    <mergeCell ref="H84:H87"/>
-    <mergeCell ref="I84:I87"/>
-    <mergeCell ref="J84:J87"/>
-    <mergeCell ref="H88:H89"/>
-    <mergeCell ref="I88:I89"/>
-    <mergeCell ref="J88:J89"/>
-    <mergeCell ref="H77:H81"/>
-    <mergeCell ref="I77:I81"/>
-    <mergeCell ref="J77:J81"/>
-    <mergeCell ref="H82:H83"/>
-    <mergeCell ref="I82:I83"/>
-    <mergeCell ref="J82:J83"/>
-    <mergeCell ref="H65:H68"/>
-    <mergeCell ref="I65:I68"/>
-    <mergeCell ref="J65:J68"/>
-    <mergeCell ref="H70:H72"/>
-    <mergeCell ref="I70:I72"/>
-    <mergeCell ref="J70:J72"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="J60:J61"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="I62:I63"/>
-    <mergeCell ref="J62:J63"/>
+    <mergeCell ref="H142:H144"/>
+    <mergeCell ref="I142:I144"/>
+    <mergeCell ref="J142:J144"/>
+    <mergeCell ref="H102:H139"/>
+    <mergeCell ref="I102:I139"/>
+    <mergeCell ref="J102:J139"/>
+    <mergeCell ref="H140:H141"/>
+    <mergeCell ref="I140:I141"/>
+    <mergeCell ref="J140:J141"/>
     <mergeCell ref="J48:J53"/>
     <mergeCell ref="H48:H53"/>
     <mergeCell ref="I48:I53"/>
@@ -6073,15 +6033,49 @@
     <mergeCell ref="H40:H41"/>
     <mergeCell ref="I40:I41"/>
     <mergeCell ref="J40:J41"/>
-    <mergeCell ref="H142:H144"/>
-    <mergeCell ref="I142:I144"/>
-    <mergeCell ref="J142:J144"/>
-    <mergeCell ref="H102:H139"/>
-    <mergeCell ref="I102:I139"/>
-    <mergeCell ref="J102:J139"/>
-    <mergeCell ref="H140:H141"/>
-    <mergeCell ref="I140:I141"/>
-    <mergeCell ref="J140:J141"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="J60:J61"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="J62:J63"/>
+    <mergeCell ref="H65:H68"/>
+    <mergeCell ref="I65:I68"/>
+    <mergeCell ref="J65:J68"/>
+    <mergeCell ref="H70:H72"/>
+    <mergeCell ref="I70:I72"/>
+    <mergeCell ref="J70:J72"/>
+    <mergeCell ref="H77:H81"/>
+    <mergeCell ref="I77:I81"/>
+    <mergeCell ref="J77:J81"/>
+    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="I82:I83"/>
+    <mergeCell ref="J82:J83"/>
+    <mergeCell ref="H91:H101"/>
+    <mergeCell ref="I91:I101"/>
+    <mergeCell ref="J91:J101"/>
+    <mergeCell ref="H84:H87"/>
+    <mergeCell ref="I84:I87"/>
+    <mergeCell ref="J84:J87"/>
+    <mergeCell ref="H88:H89"/>
+    <mergeCell ref="I88:I89"/>
+    <mergeCell ref="J88:J89"/>
+    <mergeCell ref="K18:K21"/>
+    <mergeCell ref="K22:K39"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="K48:K53"/>
+    <mergeCell ref="K60:K61"/>
+    <mergeCell ref="K65:K68"/>
+    <mergeCell ref="K70:K72"/>
+    <mergeCell ref="K77:K81"/>
+    <mergeCell ref="K82:K83"/>
+    <mergeCell ref="K142:K144"/>
+    <mergeCell ref="K84:K87"/>
+    <mergeCell ref="K88:K89"/>
+    <mergeCell ref="K91:K101"/>
+    <mergeCell ref="K102:K139"/>
+    <mergeCell ref="K140:K141"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:H18 H22 H44 H46:H48 H54:H60 H62 H64:H65 H69:H70 H73:H77 H82 H84 H90:H91 H102 H140 H145:H1048576">
     <cfRule type="containsText" dxfId="37" priority="34" operator="containsText" text="Unsure">
@@ -6212,10 +6206,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K18 K22 K40 K42:K44 K46:K48 K54:K60 K62:K65 K69:K70 K73:K77 K82 K84 K88 K90:K91 K102 K140 K142 K145:K1048576">
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",K1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",K1)))</formula>
     </cfRule>
   </conditionalFormatting>
